--- a/ApolloQA/Data/RatingManual/SC/VA00060.ClassCode_InsuranceScoreTierFactors.xlsx
+++ b/ApolloQA/Data/RatingManual/SC/VA00060.ClassCode_InsuranceScoreTierFactors.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00060.ClassCode_InsuranceScoreTierFactors" sheetId="1" r:id="R0ad5803d94ff4026"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00060.ClassCode_InsuranceScoreTierFactors" sheetId="1" r:id="R634ffd919da54f2d"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -631,6 +631,17 @@
         <x:v>704</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>AB16</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>704</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>AB17</x:v>
       </x:c>
       <x:c t="str">
@@ -1236,6 +1247,17 @@
         <x:v>826</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>AB12</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>826</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>AB13</x:v>
       </x:c>
       <x:c t="str">
@@ -1841,6 +1863,17 @@
         <x:v>856</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>AB08</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>856</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>AB09</x:v>
       </x:c>
       <x:c t="str">
@@ -2436,6 +2469,17 @@
       </x:c>
       <x:c t="str">
         <x:v>AB03</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>1631</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>AB04</x:v>
       </x:c>
       <x:c t="str">
         <x:v>1.0000</x:v>
